--- a/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="285">
   <si>
     <t>type</t>
   </si>
@@ -199,10 +199,22 @@
     <t>Le format doit être 123-1234-567. Juste la deuxième et la troisième partie du code</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>m_heure_prelevement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora da recolha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure de prelevement </t>
+  </si>
+  <si>
     <t>select_one results_list</t>
   </si>
   <si>
-    <t>m_result1</t>
+    <t>m_result</t>
   </si>
   <si>
     <t>Resultado da gota grossa noturna</t>
@@ -214,6 +226,15 @@
     <t>Résultat de la goutte épaisse nocturne</t>
   </si>
   <si>
+    <t>m_nbre_parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de parasites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de parasitas </t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -844,10 +865,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Abr 2022) 4. TAS1 FL - Filaremia noturna V2</t>
-  </si>
-  <si>
-    <t>st_lf_tas1_4_diag_result_202204_2</t>
+    <t>(Abr 2022) 4. TAS1 FL - Filaremia noturna V2.1</t>
+  </si>
+  <si>
+    <t>st_lf_tas1_4_diag_result_202204_2_1</t>
   </si>
   <si>
     <t>Portugese</t>
@@ -858,10 +879,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -915,22 +936,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,6 +951,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -953,7 +982,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,23 +1033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,22 +1049,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,23 +1064,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1077,7 +1098,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,25 +1158,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,25 +1218,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,115 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,6 +1337,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1345,6 +1381,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,175 +1434,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1998,14 +2019,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2288,92 +2309,104 @@
       <c r="A8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="21"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" s="3" customFormat="1" spans="1:16">
       <c r="A9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="F9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:16">
       <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="36"/>
+      <c r="E11" s="36" t="s">
+        <v>75</v>
+      </c>
       <c r="F11" s="36"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -2385,6 +2418,50 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2414,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2426,224 +2503,224 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -2656,121 +2733,121 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:1">
@@ -2778,2558 +2855,2558 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C123" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C125" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D125" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F125" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C126" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D126" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F134" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F135" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F137" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C138" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F138" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C139" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F143" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F145" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C146" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F146" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F147" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D148" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F148" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D149" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F149" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D150" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F150" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D152" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F152" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D153" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F153" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D154" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F154" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D156" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F157" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D159" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F159" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C160" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D160" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F160" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C161" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D161" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F161" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C162" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F162" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C163" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D163" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F163" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C164" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D164" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F164" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D165" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F165" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C166" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D166" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F166" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D167" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F167" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C168" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D168" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F168" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C169" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D169" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F169" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C170" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D170" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F170" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D171" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F171" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F172" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D173" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F173" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C174" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D174" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F174" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D175" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F175" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F176" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" customFormat="1"/>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B178">
         <v>101</v>
@@ -5341,12 +5418,12 @@
         <v>101</v>
       </c>
       <c r="G178" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B179">
         <v>102</v>
@@ -5358,12 +5435,12 @@
         <v>102</v>
       </c>
       <c r="G179" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B180">
         <v>103</v>
@@ -5375,12 +5452,12 @@
         <v>103</v>
       </c>
       <c r="G180" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B181">
         <v>104</v>
@@ -5392,12 +5469,12 @@
         <v>104</v>
       </c>
       <c r="G181" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B182">
         <v>105</v>
@@ -5409,12 +5486,12 @@
         <v>105</v>
       </c>
       <c r="G182" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B183">
         <v>106</v>
@@ -5426,12 +5503,12 @@
         <v>106</v>
       </c>
       <c r="G183" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B184">
         <v>107</v>
@@ -5443,12 +5520,12 @@
         <v>107</v>
       </c>
       <c r="G184" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B185">
         <v>108</v>
@@ -5460,12 +5537,12 @@
         <v>108</v>
       </c>
       <c r="G185" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B186">
         <v>109</v>
@@ -5477,12 +5554,12 @@
         <v>109</v>
       </c>
       <c r="G186" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B187">
         <v>110</v>
@@ -5494,12 +5571,12 @@
         <v>110</v>
       </c>
       <c r="G187" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B188">
         <v>111</v>
@@ -5511,12 +5588,12 @@
         <v>111</v>
       </c>
       <c r="G188" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B189">
         <v>112</v>
@@ -5528,12 +5605,12 @@
         <v>112</v>
       </c>
       <c r="G189" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B190">
         <v>113</v>
@@ -5545,12 +5622,12 @@
         <v>113</v>
       </c>
       <c r="G190" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B191">
         <v>114</v>
@@ -5562,12 +5639,12 @@
         <v>114</v>
       </c>
       <c r="G191" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B192">
         <v>115</v>
@@ -5579,12 +5656,12 @@
         <v>115</v>
       </c>
       <c r="G192" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B193">
         <v>116</v>
@@ -5596,12 +5673,12 @@
         <v>116</v>
       </c>
       <c r="G193" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B194">
         <v>117</v>
@@ -5613,12 +5690,12 @@
         <v>117</v>
       </c>
       <c r="G194" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B195">
         <v>118</v>
@@ -5630,12 +5707,12 @@
         <v>118</v>
       </c>
       <c r="G195" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B196">
         <v>119</v>
@@ -5647,12 +5724,12 @@
         <v>119</v>
       </c>
       <c r="G196" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B197">
         <v>120</v>
@@ -5664,12 +5741,12 @@
         <v>120</v>
       </c>
       <c r="G197" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B198">
         <v>121</v>
@@ -5681,12 +5758,12 @@
         <v>121</v>
       </c>
       <c r="G198" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B199">
         <v>122</v>
@@ -5698,12 +5775,12 @@
         <v>122</v>
       </c>
       <c r="G199" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B200">
         <v>123</v>
@@ -5715,12 +5792,12 @@
         <v>123</v>
       </c>
       <c r="G200" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B201">
         <v>124</v>
@@ -5732,12 +5809,12 @@
         <v>124</v>
       </c>
       <c r="G201" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B202">
         <v>125</v>
@@ -5749,12 +5826,12 @@
         <v>125</v>
       </c>
       <c r="G202" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B203">
         <v>126</v>
@@ -5766,12 +5843,12 @@
         <v>126</v>
       </c>
       <c r="G203" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B204">
         <v>127</v>
@@ -5783,12 +5860,12 @@
         <v>127</v>
       </c>
       <c r="G204" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B205">
         <v>128</v>
@@ -5800,12 +5877,12 @@
         <v>128</v>
       </c>
       <c r="G205" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B206">
         <v>129</v>
@@ -5817,12 +5894,12 @@
         <v>129</v>
       </c>
       <c r="G206" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B207">
         <v>130</v>
@@ -5834,12 +5911,12 @@
         <v>130</v>
       </c>
       <c r="G207" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B208">
         <v>131</v>
@@ -5851,12 +5928,12 @@
         <v>131</v>
       </c>
       <c r="G208" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B209">
         <v>132</v>
@@ -5868,12 +5945,12 @@
         <v>132</v>
       </c>
       <c r="G209" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B210">
         <v>133</v>
@@ -5885,12 +5962,12 @@
         <v>133</v>
       </c>
       <c r="G210" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B211">
         <v>134</v>
@@ -5902,12 +5979,12 @@
         <v>134</v>
       </c>
       <c r="G211" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B212">
         <v>135</v>
@@ -5919,12 +5996,12 @@
         <v>135</v>
       </c>
       <c r="G212" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B213">
         <v>136</v>
@@ -5936,12 +6013,12 @@
         <v>136</v>
       </c>
       <c r="G213" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B214">
         <v>137</v>
@@ -5953,12 +6030,12 @@
         <v>137</v>
       </c>
       <c r="G214" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B215">
         <v>138</v>
@@ -5970,12 +6047,12 @@
         <v>138</v>
       </c>
       <c r="G215" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B216">
         <v>139</v>
@@ -5987,12 +6064,12 @@
         <v>139</v>
       </c>
       <c r="G216" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B217">
         <v>140</v>
@@ -6004,12 +6081,12 @@
         <v>140</v>
       </c>
       <c r="G217" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B218">
         <v>141</v>
@@ -6021,12 +6098,12 @@
         <v>141</v>
       </c>
       <c r="G218" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B219">
         <v>142</v>
@@ -6038,12 +6115,12 @@
         <v>142</v>
       </c>
       <c r="G219" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B220">
         <v>143</v>
@@ -6055,12 +6132,12 @@
         <v>143</v>
       </c>
       <c r="G220" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B221">
         <v>144</v>
@@ -6072,12 +6149,12 @@
         <v>144</v>
       </c>
       <c r="G221" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B222">
         <v>145</v>
@@ -6089,12 +6166,12 @@
         <v>145</v>
       </c>
       <c r="G222" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B223">
         <v>146</v>
@@ -6106,12 +6183,12 @@
         <v>146</v>
       </c>
       <c r="G223" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B224">
         <v>147</v>
@@ -6123,12 +6200,12 @@
         <v>147</v>
       </c>
       <c r="G224" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B225">
         <v>148</v>
@@ -6140,12 +6217,12 @@
         <v>148</v>
       </c>
       <c r="G225" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B226">
         <v>149</v>
@@ -6157,12 +6234,12 @@
         <v>149</v>
       </c>
       <c r="G226" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B227">
         <v>150</v>
@@ -6174,12 +6251,12 @@
         <v>150</v>
       </c>
       <c r="G227" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B228">
         <v>151</v>
@@ -6191,12 +6268,12 @@
         <v>151</v>
       </c>
       <c r="G228" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B229">
         <v>152</v>
@@ -6208,12 +6285,12 @@
         <v>152</v>
       </c>
       <c r="G229" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B230">
         <v>153</v>
@@ -6225,12 +6302,12 @@
         <v>153</v>
       </c>
       <c r="G230" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B231">
         <v>154</v>
@@ -6242,12 +6319,12 @@
         <v>154</v>
       </c>
       <c r="G231" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B232">
         <v>155</v>
@@ -6259,12 +6336,12 @@
         <v>155</v>
       </c>
       <c r="G232" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B233">
         <v>156</v>
@@ -6276,12 +6353,12 @@
         <v>156</v>
       </c>
       <c r="G233" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B234">
         <v>157</v>
@@ -6293,12 +6370,12 @@
         <v>157</v>
       </c>
       <c r="G234" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B235">
         <v>158</v>
@@ -6310,12 +6387,12 @@
         <v>158</v>
       </c>
       <c r="G235" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B236">
         <v>159</v>
@@ -6327,12 +6404,12 @@
         <v>159</v>
       </c>
       <c r="G236" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B237">
         <v>160</v>
@@ -6344,12 +6421,12 @@
         <v>160</v>
       </c>
       <c r="G237" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B238">
         <v>161</v>
@@ -6361,12 +6438,12 @@
         <v>161</v>
       </c>
       <c r="G238" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B239">
         <v>162</v>
@@ -6378,12 +6455,12 @@
         <v>162</v>
       </c>
       <c r="G239" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B240">
         <v>163</v>
@@ -6395,12 +6472,12 @@
         <v>163</v>
       </c>
       <c r="G240" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B241">
         <v>164</v>
@@ -6412,12 +6489,12 @@
         <v>164</v>
       </c>
       <c r="G241" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B242">
         <v>165</v>
@@ -6429,12 +6506,12 @@
         <v>165</v>
       </c>
       <c r="G242" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B243">
         <v>166</v>
@@ -6446,12 +6523,12 @@
         <v>166</v>
       </c>
       <c r="G243" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B244">
         <v>167</v>
@@ -6463,12 +6540,12 @@
         <v>167</v>
       </c>
       <c r="G244" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B245">
         <v>168</v>
@@ -6480,12 +6557,12 @@
         <v>168</v>
       </c>
       <c r="G245" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B246">
         <v>169</v>
@@ -6497,12 +6574,12 @@
         <v>169</v>
       </c>
       <c r="G246" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B247">
         <v>170</v>
@@ -6514,12 +6591,12 @@
         <v>170</v>
       </c>
       <c r="G247" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B248">
         <v>171</v>
@@ -6531,12 +6608,12 @@
         <v>171</v>
       </c>
       <c r="G248" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B249">
         <v>172</v>
@@ -6548,12 +6625,12 @@
         <v>172</v>
       </c>
       <c r="G249" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B250">
         <v>173</v>
@@ -6565,12 +6642,12 @@
         <v>173</v>
       </c>
       <c r="G250" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B251">
         <v>174</v>
@@ -6582,12 +6659,12 @@
         <v>174</v>
       </c>
       <c r="G251" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B252">
         <v>175</v>
@@ -6599,12 +6676,12 @@
         <v>175</v>
       </c>
       <c r="G252" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B253">
         <v>176</v>
@@ -6616,12 +6693,12 @@
         <v>176</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B254">
         <v>177</v>
@@ -6633,12 +6710,12 @@
         <v>177</v>
       </c>
       <c r="G254" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B255">
         <v>178</v>
@@ -6650,12 +6727,12 @@
         <v>178</v>
       </c>
       <c r="G255" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>179</v>
@@ -6667,12 +6744,12 @@
         <v>179</v>
       </c>
       <c r="G256" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B257">
         <v>180</v>
@@ -6684,12 +6761,12 @@
         <v>180</v>
       </c>
       <c r="G257" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B258">
         <v>181</v>
@@ -6701,12 +6778,12 @@
         <v>181</v>
       </c>
       <c r="G258" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B259">
         <v>182</v>
@@ -6718,12 +6795,12 @@
         <v>182</v>
       </c>
       <c r="G259" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B260">
         <v>183</v>
@@ -6735,12 +6812,12 @@
         <v>183</v>
       </c>
       <c r="G260" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B261">
         <v>184</v>
@@ -6752,12 +6829,12 @@
         <v>184</v>
       </c>
       <c r="G261" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B262">
         <v>185</v>
@@ -6769,12 +6846,12 @@
         <v>185</v>
       </c>
       <c r="G262" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B263">
         <v>186</v>
@@ -6786,12 +6863,12 @@
         <v>186</v>
       </c>
       <c r="G263" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B264">
         <v>187</v>
@@ -6803,12 +6880,12 @@
         <v>187</v>
       </c>
       <c r="G264" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B265">
         <v>188</v>
@@ -6820,12 +6897,12 @@
         <v>188</v>
       </c>
       <c r="G265" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B266">
         <v>189</v>
@@ -6837,12 +6914,12 @@
         <v>189</v>
       </c>
       <c r="G266" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B267">
         <v>190</v>
@@ -6854,12 +6931,12 @@
         <v>190</v>
       </c>
       <c r="G267" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B268">
         <v>191</v>
@@ -6871,12 +6948,12 @@
         <v>191</v>
       </c>
       <c r="G268" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B269">
         <v>192</v>
@@ -6888,12 +6965,12 @@
         <v>192</v>
       </c>
       <c r="G269" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B270">
         <v>193</v>
@@ -6905,12 +6982,12 @@
         <v>193</v>
       </c>
       <c r="G270" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B271">
         <v>194</v>
@@ -6922,12 +6999,12 @@
         <v>194</v>
       </c>
       <c r="G271" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B272">
         <v>195</v>
@@ -6939,12 +7016,12 @@
         <v>195</v>
       </c>
       <c r="G272" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B273">
         <v>196</v>
@@ -6956,12 +7033,12 @@
         <v>196</v>
       </c>
       <c r="G273" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B274">
         <v>197</v>
@@ -6973,12 +7050,12 @@
         <v>197</v>
       </c>
       <c r="G274" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B275">
         <v>198</v>
@@ -6990,12 +7067,12 @@
         <v>198</v>
       </c>
       <c r="G275" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B276">
         <v>199</v>
@@ -7007,12 +7084,12 @@
         <v>199</v>
       </c>
       <c r="G276" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B277">
         <v>200</v>
@@ -7024,12 +7101,12 @@
         <v>200</v>
       </c>
       <c r="G277" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>201</v>
@@ -7041,12 +7118,12 @@
         <v>201</v>
       </c>
       <c r="G278" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>202</v>
@@ -7058,12 +7135,12 @@
         <v>202</v>
       </c>
       <c r="G279" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B280">
         <v>203</v>
@@ -7075,12 +7152,12 @@
         <v>203</v>
       </c>
       <c r="G280" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B281">
         <v>204</v>
@@ -7092,12 +7169,12 @@
         <v>204</v>
       </c>
       <c r="G281" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B282">
         <v>205</v>
@@ -7109,12 +7186,12 @@
         <v>205</v>
       </c>
       <c r="G282" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B283">
         <v>206</v>
@@ -7126,12 +7203,12 @@
         <v>206</v>
       </c>
       <c r="G283" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B284">
         <v>207</v>
@@ -7143,12 +7220,12 @@
         <v>207</v>
       </c>
       <c r="G284" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B285">
         <v>208</v>
@@ -7160,12 +7237,12 @@
         <v>208</v>
       </c>
       <c r="G285" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B286">
         <v>209</v>
@@ -7177,12 +7254,12 @@
         <v>209</v>
       </c>
       <c r="G286" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B287">
         <v>210</v>
@@ -7194,12 +7271,12 @@
         <v>210</v>
       </c>
       <c r="G287" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B288">
         <v>211</v>
@@ -7211,12 +7288,12 @@
         <v>211</v>
       </c>
       <c r="G288" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B289">
         <v>212</v>
@@ -7228,12 +7305,12 @@
         <v>212</v>
       </c>
       <c r="G289" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B290">
         <v>213</v>
@@ -7245,12 +7322,12 @@
         <v>213</v>
       </c>
       <c r="G290" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B291">
         <v>214</v>
@@ -7262,12 +7339,12 @@
         <v>214</v>
       </c>
       <c r="G291" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B292">
         <v>215</v>
@@ -7279,12 +7356,12 @@
         <v>215</v>
       </c>
       <c r="G292" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B293">
         <v>216</v>
@@ -7296,12 +7373,12 @@
         <v>216</v>
       </c>
       <c r="G293" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B294">
         <v>217</v>
@@ -7313,12 +7390,12 @@
         <v>217</v>
       </c>
       <c r="G294" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B295">
         <v>218</v>
@@ -7330,12 +7407,12 @@
         <v>218</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B296">
         <v>219</v>
@@ -7347,12 +7424,12 @@
         <v>219</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B297">
         <v>220</v>
@@ -7364,12 +7441,12 @@
         <v>220</v>
       </c>
       <c r="G297" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B298">
         <v>221</v>
@@ -7381,12 +7458,12 @@
         <v>221</v>
       </c>
       <c r="G298" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B299">
         <v>222</v>
@@ -7398,12 +7475,12 @@
         <v>222</v>
       </c>
       <c r="G299" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B300">
         <v>223</v>
@@ -7415,12 +7492,12 @@
         <v>223</v>
       </c>
       <c r="G300" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B301">
         <v>224</v>
@@ -7432,12 +7509,12 @@
         <v>224</v>
       </c>
       <c r="G301" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B302">
         <v>225</v>
@@ -7449,12 +7526,12 @@
         <v>225</v>
       </c>
       <c r="G302" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B303">
         <v>226</v>
@@ -7466,12 +7543,12 @@
         <v>226</v>
       </c>
       <c r="G303" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B304">
         <v>227</v>
@@ -7483,12 +7560,12 @@
         <v>227</v>
       </c>
       <c r="G304" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B305">
         <v>228</v>
@@ -7500,12 +7577,12 @@
         <v>228</v>
       </c>
       <c r="G305" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B306">
         <v>229</v>
@@ -7517,12 +7594,12 @@
         <v>229</v>
       </c>
       <c r="G306" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B307">
         <v>230</v>
@@ -7534,12 +7611,12 @@
         <v>230</v>
       </c>
       <c r="G307" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B308">
         <v>231</v>
@@ -7551,12 +7628,12 @@
         <v>231</v>
       </c>
       <c r="G308" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B309">
         <v>232</v>
@@ -7568,12 +7645,12 @@
         <v>232</v>
       </c>
       <c r="G309" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B310">
         <v>233</v>
@@ -7585,12 +7662,12 @@
         <v>233</v>
       </c>
       <c r="G310" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B311">
         <v>234</v>
@@ -7602,12 +7679,12 @@
         <v>234</v>
       </c>
       <c r="G311" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B312">
         <v>235</v>
@@ -7619,12 +7696,12 @@
         <v>235</v>
       </c>
       <c r="G312" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B313">
         <v>236</v>
@@ -7636,12 +7713,12 @@
         <v>236</v>
       </c>
       <c r="G313" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B314">
         <v>237</v>
@@ -7653,12 +7730,12 @@
         <v>237</v>
       </c>
       <c r="G314" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B315">
         <v>238</v>
@@ -7670,12 +7747,12 @@
         <v>238</v>
       </c>
       <c r="G315" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B316">
         <v>239</v>
@@ -7687,12 +7764,12 @@
         <v>239</v>
       </c>
       <c r="G316" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B317">
         <v>240</v>
@@ -7704,12 +7781,12 @@
         <v>240</v>
       </c>
       <c r="G317" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B318">
         <v>241</v>
@@ -7721,12 +7798,12 @@
         <v>241</v>
       </c>
       <c r="G318" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B319">
         <v>242</v>
@@ -7738,12 +7815,12 @@
         <v>242</v>
       </c>
       <c r="G319" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B320">
         <v>243</v>
@@ -7755,12 +7832,12 @@
         <v>243</v>
       </c>
       <c r="G320" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B321">
         <v>244</v>
@@ -7772,12 +7849,12 @@
         <v>244</v>
       </c>
       <c r="G321" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B322">
         <v>245</v>
@@ -7789,12 +7866,12 @@
         <v>245</v>
       </c>
       <c r="G322" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B323">
         <v>246</v>
@@ -7806,12 +7883,12 @@
         <v>246</v>
       </c>
       <c r="G323" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B324">
         <v>247</v>
@@ -7823,12 +7900,12 @@
         <v>247</v>
       </c>
       <c r="G324" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B325">
         <v>248</v>
@@ -7840,12 +7917,12 @@
         <v>248</v>
       </c>
       <c r="G325" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B326">
         <v>249</v>
@@ -7857,12 +7934,12 @@
         <v>249</v>
       </c>
       <c r="G326" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B327">
         <v>250</v>
@@ -7874,7 +7951,7 @@
         <v>250</v>
       </c>
       <c r="G327" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -7893,7 +7970,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -7904,24 +7981,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
@@ -75,10 +75,10 @@
     <t>m_recorderID</t>
   </si>
   <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
+    <t>Introduzir o ID do gravador</t>
+  </si>
+  <si>
+    <t>Se for o único gravador da sua equipa, este pode ser chamado de "identificação da equipa". O ID do gravador é um código de 2 dígitos que lhe foi atribuído a si ou à sua equipa.</t>
   </si>
   <si>
     <t>Entrer l'identifiant de l'enregistreur</t>
@@ -865,10 +865,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Abr 2022) 4. TAS1 FL - Filaremia noturna V2.1</t>
-  </si>
-  <si>
-    <t>st_lf_tas1_4_diag_result_202204_2_1</t>
+    <t>(Abr 2022) 4. TAS1 FL - Filaremia noturna V3</t>
+  </si>
+  <si>
+    <t>st_lf_tas1_4_diag_result_202204_3</t>
   </si>
   <si>
     <t>Portugese</t>
@@ -880,9 +880,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -935,11 +935,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,7 +974,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,67 +1027,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,20 +1041,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1063,11 +1049,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1098,13 +1098,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,103 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,43 +1194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1218,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,6 +1337,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1352,20 +1370,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,17 +1415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,154 +1434,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1628,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2026,7 +2026,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2146,10 +2146,10 @@
       <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
@@ -2174,10 +2174,10 @@
       <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="31" t="s">
         <v>34</v>
       </c>
@@ -2204,10 +2204,10 @@
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="31" t="s">
         <v>39</v>
       </c>
@@ -2234,10 +2234,10 @@
       <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2274,10 +2274,10 @@
       <c r="B7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -2312,10 +2312,10 @@
       <c r="B8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="28" t="s">
         <v>63</v>
       </c>
@@ -2478,7 +2478,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_4_diag_result_202204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="385">
   <si>
     <t>type</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">Número de parasitas </t>
+  </si>
+  <si>
+    <t>${m_result} = 'Positivo'</t>
   </si>
   <si>
     <t>text</t>
@@ -2319,11 +2322,11 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2651,7 +2654,9 @@
       <c r="H9" s="15"/>
       <c r="I9" s="39"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="29" t="s">
         <v>26</v>
@@ -2662,17 +2667,17 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="23"/>
@@ -2688,10 +2693,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
@@ -2710,10 +2715,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
@@ -2745,7 +2750,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD533"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2758,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2770,224 +2775,224 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -3000,100 +3005,100 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:1">
@@ -3101,4309 +3106,4309 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F131" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F132" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F135" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F138" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F141" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F142" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F143" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C145" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F146" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F147" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C148" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F148" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F149" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F150" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F151" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F153" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F154" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F155" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F156" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F157" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F158" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F159" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D160" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F160" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C161" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D161" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F161" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C162" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D162" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F162" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F163" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F164" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F165" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F166" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F167" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F168" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F170" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F171" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F172" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F173" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D175" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F176" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" customFormat="1" spans="1:6">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F177" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C178" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D178" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F179" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F180" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F181" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F182" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F183" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F184" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F185" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F186" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F187" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F188" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C189" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D189" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F190" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F191" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F193" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F194" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B195" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C195" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D195" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F195" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C196" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D196" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F196" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C197" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D197" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D198" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F198" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D199" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C200" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D200" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F200" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C201" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D201" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F201" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F202" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F203" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F204" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B205" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D205" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F205" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F206" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F207" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C208" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D208" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F208" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C209" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F209" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F210" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F211" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F212" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B213" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C213" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D213" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F213" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B214" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C214" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D214" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F214" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B215" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C215" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D215" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F215" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B216" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C216" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C217" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D217" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F217" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B218" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C218" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F218" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B219" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C219" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D219" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F219" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B220" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C220" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D220" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F220" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B221" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C221" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D221" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F221" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B222" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C222" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D222" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F222" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B223" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C223" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F223" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B224" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C224" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D224" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F224" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B225" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C225" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D225" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F225" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B226" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C226" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D226" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F226" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B227" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C227" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D227" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F227" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B228" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C228" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D228" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F228" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B229" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C229" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D229" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F229" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B230" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D230" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F230" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B231" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C231" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D231" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F231" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F232" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B233" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C233" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D233" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F233" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B234" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C234" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D234" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B235" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C235" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F235" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B236" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C236" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D236" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F236" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F237" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B238" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C238" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D238" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F238" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B240" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C240" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D240" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F241" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F242" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B243" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C243" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D243" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F243" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B244" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C244" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D244" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F244" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B245" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C245" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D245" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F245" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F246" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B247" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C247" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D247" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F247" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B248" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C248" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D248" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F248" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B249" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C249" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D249" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F249" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B250" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C250" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D250" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F250" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B251" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D251" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F251" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B252" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C252" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D252" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F252" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B253" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D253" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F253" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B254" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C254" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D254" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F254" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B255" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C255" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D255" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F255" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F256" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F257" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D258" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F258" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F259" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B260" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D260" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F260" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F261" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F262" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C263" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D263" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F263" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F264" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B265" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D265" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F265" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F266" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F267" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B268" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D268" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F268" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B269" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C269" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D269" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F269" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D270" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F270" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C271" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D271" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F271" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B272" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C272" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D272" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F272" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B273" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C273" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D273" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F273" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F274" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B275" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C275" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D275" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F275" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B276" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C276" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D276" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F276" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C277" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D277" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F277" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B278" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C278" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D278" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F278" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F279" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="280" customFormat="1"/>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B281">
         <v>101</v>
@@ -7415,12 +7420,12 @@
         <v>101</v>
       </c>
       <c r="G281" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B282">
         <v>102</v>
@@ -7432,12 +7437,12 @@
         <v>102</v>
       </c>
       <c r="G282" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B283">
         <v>103</v>
@@ -7449,12 +7454,12 @@
         <v>103</v>
       </c>
       <c r="G283" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B284">
         <v>104</v>
@@ -7466,12 +7471,12 @@
         <v>104</v>
       </c>
       <c r="G284" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B285">
         <v>105</v>
@@ -7483,12 +7488,12 @@
         <v>105</v>
       </c>
       <c r="G285" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B286">
         <v>106</v>
@@ -7500,12 +7505,12 @@
         <v>106</v>
       </c>
       <c r="G286" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B287">
         <v>107</v>
@@ -7517,12 +7522,12 @@
         <v>107</v>
       </c>
       <c r="G287" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B288">
         <v>108</v>
@@ -7534,12 +7539,12 @@
         <v>108</v>
       </c>
       <c r="G288" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B289">
         <v>109</v>
@@ -7551,12 +7556,12 @@
         <v>109</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B290">
         <v>110</v>
@@ -7568,12 +7573,12 @@
         <v>110</v>
       </c>
       <c r="G290" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B291">
         <v>111</v>
@@ -7585,12 +7590,12 @@
         <v>111</v>
       </c>
       <c r="G291" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B292">
         <v>112</v>
@@ -7602,12 +7607,12 @@
         <v>112</v>
       </c>
       <c r="G292" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B293">
         <v>113</v>
@@ -7619,12 +7624,12 @@
         <v>113</v>
       </c>
       <c r="G293" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B294">
         <v>114</v>
@@ -7636,12 +7641,12 @@
         <v>114</v>
       </c>
       <c r="G294" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B295">
         <v>115</v>
@@ -7653,12 +7658,12 @@
         <v>115</v>
       </c>
       <c r="G295" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B296">
         <v>116</v>
@@ -7670,12 +7675,12 @@
         <v>116</v>
       </c>
       <c r="G296" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B297">
         <v>117</v>
@@ -7687,12 +7692,12 @@
         <v>117</v>
       </c>
       <c r="G297" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B298">
         <v>118</v>
@@ -7704,12 +7709,12 @@
         <v>118</v>
       </c>
       <c r="G298" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B299">
         <v>119</v>
@@ -7721,12 +7726,12 @@
         <v>119</v>
       </c>
       <c r="G299" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B300">
         <v>120</v>
@@ -7738,12 +7743,12 @@
         <v>120</v>
       </c>
       <c r="G300" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B301">
         <v>121</v>
@@ -7755,12 +7760,12 @@
         <v>121</v>
       </c>
       <c r="G301" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B302">
         <v>122</v>
@@ -7772,12 +7777,12 @@
         <v>122</v>
       </c>
       <c r="G302" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B303">
         <v>123</v>
@@ -7789,12 +7794,12 @@
         <v>123</v>
       </c>
       <c r="G303" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B304">
         <v>124</v>
@@ -7806,12 +7811,12 @@
         <v>124</v>
       </c>
       <c r="G304" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B305">
         <v>125</v>
@@ -7823,12 +7828,12 @@
         <v>125</v>
       </c>
       <c r="G305" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B306">
         <v>126</v>
@@ -7840,12 +7845,12 @@
         <v>126</v>
       </c>
       <c r="G306" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B307">
         <v>127</v>
@@ -7857,12 +7862,12 @@
         <v>127</v>
       </c>
       <c r="G307" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B308">
         <v>128</v>
@@ -7874,12 +7879,12 @@
         <v>128</v>
       </c>
       <c r="G308" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B309">
         <v>129</v>
@@ -7891,12 +7896,12 @@
         <v>129</v>
       </c>
       <c r="G309" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B310">
         <v>130</v>
@@ -7908,12 +7913,12 @@
         <v>130</v>
       </c>
       <c r="G310" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B311">
         <v>131</v>
@@ -7925,12 +7930,12 @@
         <v>131</v>
       </c>
       <c r="G311" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B312">
         <v>132</v>
@@ -7942,12 +7947,12 @@
         <v>132</v>
       </c>
       <c r="G312" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B313">
         <v>133</v>
@@ -7959,12 +7964,12 @@
         <v>133</v>
       </c>
       <c r="G313" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B314">
         <v>134</v>
@@ -7976,12 +7981,12 @@
         <v>134</v>
       </c>
       <c r="G314" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B315">
         <v>135</v>
@@ -7993,12 +7998,12 @@
         <v>135</v>
       </c>
       <c r="G315" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B316">
         <v>136</v>
@@ -8010,12 +8015,12 @@
         <v>136</v>
       </c>
       <c r="G316" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B317">
         <v>137</v>
@@ -8027,12 +8032,12 @@
         <v>137</v>
       </c>
       <c r="G317" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B318">
         <v>138</v>
@@ -8044,12 +8049,12 @@
         <v>138</v>
       </c>
       <c r="G318" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B319">
         <v>139</v>
@@ -8061,12 +8066,12 @@
         <v>139</v>
       </c>
       <c r="G319" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B320">
         <v>140</v>
@@ -8078,12 +8083,12 @@
         <v>140</v>
       </c>
       <c r="G320" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B321">
         <v>141</v>
@@ -8095,12 +8100,12 @@
         <v>141</v>
       </c>
       <c r="G321" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B322">
         <v>142</v>
@@ -8112,12 +8117,12 @@
         <v>142</v>
       </c>
       <c r="G322" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B323">
         <v>143</v>
@@ -8129,12 +8134,12 @@
         <v>143</v>
       </c>
       <c r="G323" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B324">
         <v>144</v>
@@ -8146,12 +8151,12 @@
         <v>144</v>
       </c>
       <c r="G324" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B325">
         <v>145</v>
@@ -8163,12 +8168,12 @@
         <v>145</v>
       </c>
       <c r="G325" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B326">
         <v>146</v>
@@ -8180,12 +8185,12 @@
         <v>146</v>
       </c>
       <c r="G326" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B327">
         <v>147</v>
@@ -8197,12 +8202,12 @@
         <v>147</v>
       </c>
       <c r="G327" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B328">
         <v>148</v>
@@ -8214,12 +8219,12 @@
         <v>148</v>
       </c>
       <c r="G328" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B329">
         <v>149</v>
@@ -8231,12 +8236,12 @@
         <v>149</v>
       </c>
       <c r="G329" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B330">
         <v>150</v>
@@ -8248,12 +8253,12 @@
         <v>150</v>
       </c>
       <c r="G330" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B331">
         <v>151</v>
@@ -8265,12 +8270,12 @@
         <v>151</v>
       </c>
       <c r="G331" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B332">
         <v>152</v>
@@ -8282,12 +8287,12 @@
         <v>152</v>
       </c>
       <c r="G332" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B333">
         <v>153</v>
@@ -8299,12 +8304,12 @@
         <v>153</v>
       </c>
       <c r="G333" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B334">
         <v>154</v>
@@ -8316,12 +8321,12 @@
         <v>154</v>
       </c>
       <c r="G334" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B335">
         <v>155</v>
@@ -8333,12 +8338,12 @@
         <v>155</v>
       </c>
       <c r="G335" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B336">
         <v>156</v>
@@ -8350,12 +8355,12 @@
         <v>156</v>
       </c>
       <c r="G336" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B337">
         <v>157</v>
@@ -8367,12 +8372,12 @@
         <v>157</v>
       </c>
       <c r="G337" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B338">
         <v>158</v>
@@ -8384,12 +8389,12 @@
         <v>158</v>
       </c>
       <c r="G338" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B339">
         <v>159</v>
@@ -8401,12 +8406,12 @@
         <v>159</v>
       </c>
       <c r="G339" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B340">
         <v>160</v>
@@ -8418,12 +8423,12 @@
         <v>160</v>
       </c>
       <c r="G340" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B341">
         <v>161</v>
@@ -8435,12 +8440,12 @@
         <v>161</v>
       </c>
       <c r="G341" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B342">
         <v>162</v>
@@ -8452,12 +8457,12 @@
         <v>162</v>
       </c>
       <c r="G342" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B343">
         <v>163</v>
@@ -8469,12 +8474,12 @@
         <v>163</v>
       </c>
       <c r="G343" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B344">
         <v>164</v>
@@ -8486,12 +8491,12 @@
         <v>164</v>
       </c>
       <c r="G344" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B345">
         <v>165</v>
@@ -8503,12 +8508,12 @@
         <v>165</v>
       </c>
       <c r="G345" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B346">
         <v>166</v>
@@ -8520,12 +8525,12 @@
         <v>166</v>
       </c>
       <c r="G346" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B347">
         <v>167</v>
@@ -8537,12 +8542,12 @@
         <v>167</v>
       </c>
       <c r="G347" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B348">
         <v>168</v>
@@ -8554,12 +8559,12 @@
         <v>168</v>
       </c>
       <c r="G348" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B349">
         <v>169</v>
@@ -8571,12 +8576,12 @@
         <v>169</v>
       </c>
       <c r="G349" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B350">
         <v>170</v>
@@ -8588,12 +8593,12 @@
         <v>170</v>
       </c>
       <c r="G350" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B351">
         <v>171</v>
@@ -8605,12 +8610,12 @@
         <v>171</v>
       </c>
       <c r="G351" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B352">
         <v>172</v>
@@ -8622,12 +8627,12 @@
         <v>172</v>
       </c>
       <c r="G352" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B353">
         <v>173</v>
@@ -8639,12 +8644,12 @@
         <v>173</v>
       </c>
       <c r="G353" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B354">
         <v>174</v>
@@ -8656,12 +8661,12 @@
         <v>174</v>
       </c>
       <c r="G354" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B355">
         <v>175</v>
@@ -8673,12 +8678,12 @@
         <v>175</v>
       </c>
       <c r="G355" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B356">
         <v>176</v>
@@ -8690,12 +8695,12 @@
         <v>176</v>
       </c>
       <c r="G356" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B357">
         <v>177</v>
@@ -8707,12 +8712,12 @@
         <v>177</v>
       </c>
       <c r="G357" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B358">
         <v>178</v>
@@ -8724,12 +8729,12 @@
         <v>178</v>
       </c>
       <c r="G358" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B359">
         <v>179</v>
@@ -8741,12 +8746,12 @@
         <v>179</v>
       </c>
       <c r="G359" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B360">
         <v>180</v>
@@ -8758,12 +8763,12 @@
         <v>180</v>
       </c>
       <c r="G360" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B361">
         <v>181</v>
@@ -8775,12 +8780,12 @@
         <v>181</v>
       </c>
       <c r="G361" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B362">
         <v>182</v>
@@ -8792,12 +8797,12 @@
         <v>182</v>
       </c>
       <c r="G362" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B363">
         <v>183</v>
@@ -8809,12 +8814,12 @@
         <v>183</v>
       </c>
       <c r="G363" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B364">
         <v>184</v>
@@ -8826,12 +8831,12 @@
         <v>184</v>
       </c>
       <c r="G364" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B365">
         <v>185</v>
@@ -8843,12 +8848,12 @@
         <v>185</v>
       </c>
       <c r="G365" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B366">
         <v>186</v>
@@ -8860,12 +8865,12 @@
         <v>186</v>
       </c>
       <c r="G366" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B367">
         <v>187</v>
@@ -8877,12 +8882,12 @@
         <v>187</v>
       </c>
       <c r="G367" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B368">
         <v>188</v>
@@ -8894,12 +8899,12 @@
         <v>188</v>
       </c>
       <c r="G368" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B369">
         <v>189</v>
@@ -8911,12 +8916,12 @@
         <v>189</v>
       </c>
       <c r="G369" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B370">
         <v>190</v>
@@ -8928,12 +8933,12 @@
         <v>190</v>
       </c>
       <c r="G370" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B371">
         <v>191</v>
@@ -8945,12 +8950,12 @@
         <v>191</v>
       </c>
       <c r="G371" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B372">
         <v>192</v>
@@ -8962,12 +8967,12 @@
         <v>192</v>
       </c>
       <c r="G372" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B373">
         <v>193</v>
@@ -8979,12 +8984,12 @@
         <v>193</v>
       </c>
       <c r="G373" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B374">
         <v>194</v>
@@ -8996,12 +9001,12 @@
         <v>194</v>
       </c>
       <c r="G374" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B375">
         <v>195</v>
@@ -9013,12 +9018,12 @@
         <v>195</v>
       </c>
       <c r="G375" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B376">
         <v>196</v>
@@ -9030,12 +9035,12 @@
         <v>196</v>
       </c>
       <c r="G376" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B377">
         <v>197</v>
@@ -9047,12 +9052,12 @@
         <v>197</v>
       </c>
       <c r="G377" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378">
         <v>198</v>
@@ -9064,12 +9069,12 @@
         <v>198</v>
       </c>
       <c r="G378" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>199</v>
@@ -9081,12 +9086,12 @@
         <v>199</v>
       </c>
       <c r="G379" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B380">
         <v>200</v>
@@ -9098,12 +9103,12 @@
         <v>200</v>
       </c>
       <c r="G380" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B381">
         <v>201</v>
@@ -9115,12 +9120,12 @@
         <v>201</v>
       </c>
       <c r="G381" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B382">
         <v>202</v>
@@ -9132,12 +9137,12 @@
         <v>202</v>
       </c>
       <c r="G382" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B383">
         <v>203</v>
@@ -9149,12 +9154,12 @@
         <v>203</v>
       </c>
       <c r="G383" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B384">
         <v>204</v>
@@ -9166,12 +9171,12 @@
         <v>204</v>
       </c>
       <c r="G384" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B385">
         <v>205</v>
@@ -9183,12 +9188,12 @@
         <v>205</v>
       </c>
       <c r="G385" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B386">
         <v>206</v>
@@ -9200,12 +9205,12 @@
         <v>206</v>
       </c>
       <c r="G386" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B387">
         <v>207</v>
@@ -9217,12 +9222,12 @@
         <v>207</v>
       </c>
       <c r="G387" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B388">
         <v>208</v>
@@ -9234,12 +9239,12 @@
         <v>208</v>
       </c>
       <c r="G388" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B389">
         <v>209</v>
@@ -9251,12 +9256,12 @@
         <v>209</v>
       </c>
       <c r="G389" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B390">
         <v>210</v>
@@ -9268,12 +9273,12 @@
         <v>210</v>
       </c>
       <c r="G390" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B391">
         <v>211</v>
@@ -9285,12 +9290,12 @@
         <v>211</v>
       </c>
       <c r="G391" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B392">
         <v>212</v>
@@ -9302,12 +9307,12 @@
         <v>212</v>
       </c>
       <c r="G392" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B393">
         <v>213</v>
@@ -9319,12 +9324,12 @@
         <v>213</v>
       </c>
       <c r="G393" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B394">
         <v>214</v>
@@ -9336,12 +9341,12 @@
         <v>214</v>
       </c>
       <c r="G394" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B395">
         <v>215</v>
@@ -9353,12 +9358,12 @@
         <v>215</v>
       </c>
       <c r="G395" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B396">
         <v>216</v>
@@ -9370,12 +9375,12 @@
         <v>216</v>
       </c>
       <c r="G396" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B397">
         <v>217</v>
@@ -9387,12 +9392,12 @@
         <v>217</v>
       </c>
       <c r="G397" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B398">
         <v>218</v>
@@ -9404,12 +9409,12 @@
         <v>218</v>
       </c>
       <c r="G398" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B399">
         <v>219</v>
@@ -9421,12 +9426,12 @@
         <v>219</v>
       </c>
       <c r="G399" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B400">
         <v>220</v>
@@ -9438,12 +9443,12 @@
         <v>220</v>
       </c>
       <c r="G400" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B401">
         <v>221</v>
@@ -9455,12 +9460,12 @@
         <v>221</v>
       </c>
       <c r="G401" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B402">
         <v>222</v>
@@ -9472,12 +9477,12 @@
         <v>222</v>
       </c>
       <c r="G402" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B403">
         <v>223</v>
@@ -9489,12 +9494,12 @@
         <v>223</v>
       </c>
       <c r="G403" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B404">
         <v>224</v>
@@ -9506,12 +9511,12 @@
         <v>224</v>
       </c>
       <c r="G404" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="405" spans="1:7">
       <c r="A405" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B405">
         <v>225</v>
@@ -9523,12 +9528,12 @@
         <v>225</v>
       </c>
       <c r="G405" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B406">
         <v>226</v>
@@ -9540,12 +9545,12 @@
         <v>226</v>
       </c>
       <c r="G406" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B407">
         <v>227</v>
@@ -9557,12 +9562,12 @@
         <v>227</v>
       </c>
       <c r="G407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B408">
         <v>228</v>
@@ -9574,12 +9579,12 @@
         <v>228</v>
       </c>
       <c r="G408" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B409">
         <v>229</v>
@@ -9591,12 +9596,12 @@
         <v>229</v>
       </c>
       <c r="G409" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B410">
         <v>230</v>
@@ -9608,12 +9613,12 @@
         <v>230</v>
       </c>
       <c r="G410" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B411">
         <v>231</v>
@@ -9625,12 +9630,12 @@
         <v>231</v>
       </c>
       <c r="G411" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="412" spans="1:7">
       <c r="A412" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B412">
         <v>232</v>
@@ -9642,12 +9647,12 @@
         <v>232</v>
       </c>
       <c r="G412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="413" spans="1:7">
       <c r="A413" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B413">
         <v>233</v>
@@ -9659,12 +9664,12 @@
         <v>233</v>
       </c>
       <c r="G413" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B414">
         <v>234</v>
@@ -9676,12 +9681,12 @@
         <v>234</v>
       </c>
       <c r="G414" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B415">
         <v>235</v>
@@ -9693,12 +9698,12 @@
         <v>235</v>
       </c>
       <c r="G415" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B416">
         <v>236</v>
@@ -9710,12 +9715,12 @@
         <v>236</v>
       </c>
       <c r="G416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B417">
         <v>237</v>
@@ -9727,12 +9732,12 @@
         <v>237</v>
       </c>
       <c r="G417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B418">
         <v>238</v>
@@ -9744,12 +9749,12 @@
         <v>238</v>
       </c>
       <c r="G418" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B419">
         <v>239</v>
@@ -9761,12 +9766,12 @@
         <v>239</v>
       </c>
       <c r="G419" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B420">
         <v>240</v>
@@ -9778,12 +9783,12 @@
         <v>240</v>
       </c>
       <c r="G420" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B421">
         <v>241</v>
@@ -9795,12 +9800,12 @@
         <v>241</v>
       </c>
       <c r="G421" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B422">
         <v>242</v>
@@ -9812,12 +9817,12 @@
         <v>242</v>
       </c>
       <c r="G422" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B423">
         <v>243</v>
@@ -9829,12 +9834,12 @@
         <v>243</v>
       </c>
       <c r="G423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424" spans="1:7">
       <c r="A424" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B424">
         <v>244</v>
@@ -9846,12 +9851,12 @@
         <v>244</v>
       </c>
       <c r="G424" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B425">
         <v>245</v>
@@ -9863,12 +9868,12 @@
         <v>245</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B426">
         <v>246</v>
@@ -9880,12 +9885,12 @@
         <v>246</v>
       </c>
       <c r="G426" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B427">
         <v>247</v>
@@ -9897,12 +9902,12 @@
         <v>247</v>
       </c>
       <c r="G427" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="428" spans="1:7">
       <c r="A428" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B428">
         <v>248</v>
@@ -9914,12 +9919,12 @@
         <v>248</v>
       </c>
       <c r="G428" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B429">
         <v>249</v>
@@ -9931,12 +9936,12 @@
         <v>249</v>
       </c>
       <c r="G429" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="430" spans="1:7">
       <c r="A430" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B430">
         <v>250</v>
@@ -9948,12 +9953,12 @@
         <v>250</v>
       </c>
       <c r="G430" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="431" spans="1:7">
       <c r="A431" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B431">
         <v>251</v>
@@ -9965,12 +9970,12 @@
         <v>251</v>
       </c>
       <c r="G431" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B432">
         <v>252</v>
@@ -9982,12 +9987,12 @@
         <v>252</v>
       </c>
       <c r="G432" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="433" spans="1:7">
       <c r="A433" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B433">
         <v>253</v>
@@ -9999,12 +10004,12 @@
         <v>253</v>
       </c>
       <c r="G433" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B434">
         <v>254</v>
@@ -10016,12 +10021,12 @@
         <v>254</v>
       </c>
       <c r="G434" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B435">
         <v>255</v>
@@ -10033,12 +10038,12 @@
         <v>255</v>
       </c>
       <c r="G435" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B436">
         <v>256</v>
@@ -10050,12 +10055,12 @@
         <v>256</v>
       </c>
       <c r="G436" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B437">
         <v>257</v>
@@ -10067,12 +10072,12 @@
         <v>257</v>
       </c>
       <c r="G437" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B438">
         <v>258</v>
@@ -10084,12 +10089,12 @@
         <v>258</v>
       </c>
       <c r="G438" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B439">
         <v>259</v>
@@ -10101,12 +10106,12 @@
         <v>259</v>
       </c>
       <c r="G439" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B440">
         <v>260</v>
@@ -10118,12 +10123,12 @@
         <v>260</v>
       </c>
       <c r="G440" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B441">
         <v>261</v>
@@ -10135,12 +10140,12 @@
         <v>261</v>
       </c>
       <c r="G441" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B442">
         <v>262</v>
@@ -10152,12 +10157,12 @@
         <v>262</v>
       </c>
       <c r="G442" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B443">
         <v>263</v>
@@ -10169,12 +10174,12 @@
         <v>263</v>
       </c>
       <c r="G443" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B444">
         <v>264</v>
@@ -10186,12 +10191,12 @@
         <v>264</v>
       </c>
       <c r="G444" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B445">
         <v>265</v>
@@ -10203,12 +10208,12 @@
         <v>265</v>
       </c>
       <c r="G445" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B446">
         <v>266</v>
@@ -10220,12 +10225,12 @@
         <v>266</v>
       </c>
       <c r="G446" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B447">
         <v>267</v>
@@ -10237,12 +10242,12 @@
         <v>267</v>
       </c>
       <c r="G447" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B448">
         <v>268</v>
@@ -10254,12 +10259,12 @@
         <v>268</v>
       </c>
       <c r="G448" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B449">
         <v>269</v>
@@ -10271,12 +10276,12 @@
         <v>269</v>
       </c>
       <c r="G449" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B450">
         <v>270</v>
@@ -10288,12 +10293,12 @@
         <v>270</v>
       </c>
       <c r="G450" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="451" spans="1:7">
       <c r="A451" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B451">
         <v>271</v>
@@ -10305,12 +10310,12 @@
         <v>271</v>
       </c>
       <c r="G451" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B452">
         <v>272</v>
@@ -10322,12 +10327,12 @@
         <v>272</v>
       </c>
       <c r="G452" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B453">
         <v>273</v>
@@ -10339,12 +10344,12 @@
         <v>273</v>
       </c>
       <c r="G453" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B454">
         <v>274</v>
@@ -10356,12 +10361,12 @@
         <v>274</v>
       </c>
       <c r="G454" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B455">
         <v>275</v>
@@ -10373,12 +10378,12 @@
         <v>275</v>
       </c>
       <c r="G455" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B456">
         <v>276</v>
@@ -10390,12 +10395,12 @@
         <v>276</v>
       </c>
       <c r="G456" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B457">
         <v>277</v>
@@ -10407,12 +10412,12 @@
         <v>277</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="458" spans="1:7">
       <c r="A458" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B458">
         <v>278</v>
@@ -10424,12 +10429,12 @@
         <v>278</v>
       </c>
       <c r="G458" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B459">
         <v>279</v>
@@ -10441,12 +10446,12 @@
         <v>279</v>
       </c>
       <c r="G459" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="460" spans="1:7">
       <c r="A460" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B460">
         <v>280</v>
@@ -10458,12 +10463,12 @@
         <v>280</v>
       </c>
       <c r="G460" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="461" spans="1:7">
       <c r="A461" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B461">
         <v>281</v>
@@ -10475,12 +10480,12 @@
         <v>281</v>
       </c>
       <c r="G461" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="462" spans="1:7">
       <c r="A462" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B462">
         <v>282</v>
@@ -10492,12 +10497,12 @@
         <v>282</v>
       </c>
       <c r="G462" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B463">
         <v>283</v>
@@ -10509,12 +10514,12 @@
         <v>283</v>
       </c>
       <c r="G463" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B464">
         <v>284</v>
@@ -10526,12 +10531,12 @@
         <v>284</v>
       </c>
       <c r="G464" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B465">
         <v>285</v>
@@ -10543,12 +10548,12 @@
         <v>285</v>
       </c>
       <c r="G465" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B466">
         <v>286</v>
@@ -10560,12 +10565,12 @@
         <v>286</v>
       </c>
       <c r="G466" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B467">
         <v>287</v>
@@ -10577,12 +10582,12 @@
         <v>287</v>
       </c>
       <c r="G467" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="468" spans="1:7">
       <c r="A468" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B468">
         <v>288</v>
@@ -10594,12 +10599,12 @@
         <v>288</v>
       </c>
       <c r="G468" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B469">
         <v>289</v>
@@ -10611,12 +10616,12 @@
         <v>289</v>
       </c>
       <c r="G469" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="470" spans="1:7">
       <c r="A470" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B470">
         <v>290</v>
@@ -10628,12 +10633,12 @@
         <v>290</v>
       </c>
       <c r="G470" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B471">
         <v>291</v>
@@ -10645,12 +10650,12 @@
         <v>291</v>
       </c>
       <c r="G471" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="472" spans="1:7">
       <c r="A472" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B472">
         <v>292</v>
@@ -10662,12 +10667,12 @@
         <v>292</v>
       </c>
       <c r="G472" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B473">
         <v>293</v>
@@ -10679,12 +10684,12 @@
         <v>293</v>
       </c>
       <c r="G473" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B474">
         <v>294</v>
@@ -10696,12 +10701,12 @@
         <v>294</v>
       </c>
       <c r="G474" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B475">
         <v>295</v>
@@ -10713,12 +10718,12 @@
         <v>295</v>
       </c>
       <c r="G475" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B476">
         <v>296</v>
@@ -10730,12 +10735,12 @@
         <v>296</v>
       </c>
       <c r="G476" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="477" spans="1:7">
       <c r="A477" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B477">
         <v>297</v>
@@ -10747,12 +10752,12 @@
         <v>297</v>
       </c>
       <c r="G477" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="478" spans="1:7">
       <c r="A478" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B478">
         <v>298</v>
@@ -10764,12 +10769,12 @@
         <v>298</v>
       </c>
       <c r="G478" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="479" spans="1:7">
       <c r="A479" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B479">
         <v>299</v>
@@ -10781,12 +10786,12 @@
         <v>299</v>
       </c>
       <c r="G479" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B480">
         <v>300</v>
@@ -10798,12 +10803,12 @@
         <v>300</v>
       </c>
       <c r="G480" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B481">
         <v>301</v>
@@ -10815,12 +10820,12 @@
         <v>301</v>
       </c>
       <c r="G481" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="482" spans="1:7">
       <c r="A482" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B482">
         <v>302</v>
@@ -10832,12 +10837,12 @@
         <v>302</v>
       </c>
       <c r="G482" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="483" spans="1:7">
       <c r="A483" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B483">
         <v>303</v>
@@ -10849,12 +10854,12 @@
         <v>303</v>
       </c>
       <c r="G483" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="484" spans="1:7">
       <c r="A484" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B484">
         <v>304</v>
@@ -10866,12 +10871,12 @@
         <v>304</v>
       </c>
       <c r="G484" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B485">
         <v>305</v>
@@ -10883,12 +10888,12 @@
         <v>305</v>
       </c>
       <c r="G485" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B486">
         <v>306</v>
@@ -10900,12 +10905,12 @@
         <v>306</v>
       </c>
       <c r="G486" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B487">
         <v>307</v>
@@ -10917,12 +10922,12 @@
         <v>307</v>
       </c>
       <c r="G487" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B488">
         <v>308</v>
@@ -10934,12 +10939,12 @@
         <v>308</v>
       </c>
       <c r="G488" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="489" spans="1:7">
       <c r="A489" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B489">
         <v>309</v>
@@ -10951,12 +10956,12 @@
         <v>309</v>
       </c>
       <c r="G489" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="490" spans="1:7">
       <c r="A490" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B490">
         <v>310</v>
@@ -10968,12 +10973,12 @@
         <v>310</v>
       </c>
       <c r="G490" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="491" spans="1:7">
       <c r="A491" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B491">
         <v>311</v>
@@ -10985,12 +10990,12 @@
         <v>311</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="492" spans="1:7">
       <c r="A492" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B492">
         <v>312</v>
@@ -11002,12 +11007,12 @@
         <v>312</v>
       </c>
       <c r="G492" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="493" spans="1:7">
       <c r="A493" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B493">
         <v>313</v>
@@ -11019,12 +11024,12 @@
         <v>313</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="494" spans="1:7">
       <c r="A494" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B494">
         <v>314</v>
@@ -11036,12 +11041,12 @@
         <v>314</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="495" spans="1:7">
       <c r="A495" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B495">
         <v>315</v>
@@ -11053,12 +11058,12 @@
         <v>315</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="496" spans="1:7">
       <c r="A496" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B496">
         <v>316</v>
@@ -11070,12 +11075,12 @@
         <v>316</v>
       </c>
       <c r="G496" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B497">
         <v>317</v>
@@ -11087,12 +11092,12 @@
         <v>317</v>
       </c>
       <c r="G497" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="498" spans="1:7">
       <c r="A498" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B498">
         <v>318</v>
@@ -11104,12 +11109,12 @@
         <v>318</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B499">
         <v>319</v>
@@ -11121,12 +11126,12 @@
         <v>319</v>
       </c>
       <c r="G499" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="500" spans="1:7">
       <c r="A500" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B500">
         <v>320</v>
@@ -11138,12 +11143,12 @@
         <v>320</v>
       </c>
       <c r="G500" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="501" spans="1:7">
       <c r="A501" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B501">
         <v>321</v>
@@ -11155,12 +11160,12 @@
         <v>321</v>
       </c>
       <c r="G501" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="502" spans="1:7">
       <c r="A502" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B502">
         <v>322</v>
@@ -11172,12 +11177,12 @@
         <v>322</v>
       </c>
       <c r="G502" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="503" spans="1:7">
       <c r="A503" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B503">
         <v>323</v>
@@ -11189,12 +11194,12 @@
         <v>323</v>
       </c>
       <c r="G503" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="504" spans="1:7">
       <c r="A504" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B504">
         <v>324</v>
@@ -11206,12 +11211,12 @@
         <v>324</v>
       </c>
       <c r="G504" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="505" spans="1:7">
       <c r="A505" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B505">
         <v>325</v>
@@ -11223,12 +11228,12 @@
         <v>325</v>
       </c>
       <c r="G505" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="506" spans="1:7">
       <c r="A506" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B506">
         <v>326</v>
@@ -11240,12 +11245,12 @@
         <v>326</v>
       </c>
       <c r="G506" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="507" spans="1:7">
       <c r="A507" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B507">
         <v>327</v>
@@ -11257,12 +11262,12 @@
         <v>327</v>
       </c>
       <c r="G507" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="508" spans="1:7">
       <c r="A508" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B508">
         <v>328</v>
@@ -11274,12 +11279,12 @@
         <v>328</v>
       </c>
       <c r="G508" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="509" spans="1:7">
       <c r="A509" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B509">
         <v>329</v>
@@ -11291,12 +11296,12 @@
         <v>329</v>
       </c>
       <c r="G509" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="510" spans="1:7">
       <c r="A510" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B510">
         <v>330</v>
@@ -11308,12 +11313,12 @@
         <v>330</v>
       </c>
       <c r="G510" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="511" spans="1:7">
       <c r="A511" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B511">
         <v>331</v>
@@ -11325,12 +11330,12 @@
         <v>331</v>
       </c>
       <c r="G511" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="512" spans="1:7">
       <c r="A512" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B512">
         <v>332</v>
@@ -11342,12 +11347,12 @@
         <v>332</v>
       </c>
       <c r="G512" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="513" spans="1:7">
       <c r="A513" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B513">
         <v>333</v>
@@ -11359,12 +11364,12 @@
         <v>333</v>
       </c>
       <c r="G513" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="514" spans="1:7">
       <c r="A514" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B514">
         <v>334</v>
@@ -11376,12 +11381,12 @@
         <v>334</v>
       </c>
       <c r="G514" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B515">
         <v>335</v>
@@ -11393,12 +11398,12 @@
         <v>335</v>
       </c>
       <c r="G515" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B516">
         <v>336</v>
@@ -11410,12 +11415,12 @@
         <v>336</v>
       </c>
       <c r="G516" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="517" spans="1:7">
       <c r="A517" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B517">
         <v>337</v>
@@ -11427,12 +11432,12 @@
         <v>337</v>
       </c>
       <c r="G517" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="518" spans="1:7">
       <c r="A518" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B518">
         <v>338</v>
@@ -11444,12 +11449,12 @@
         <v>338</v>
       </c>
       <c r="G518" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B519">
         <v>339</v>
@@ -11461,12 +11466,12 @@
         <v>339</v>
       </c>
       <c r="G519" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="520" spans="1:7">
       <c r="A520" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B520">
         <v>340</v>
@@ -11478,12 +11483,12 @@
         <v>340</v>
       </c>
       <c r="G520" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="521" spans="1:7">
       <c r="A521" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B521">
         <v>341</v>
@@ -11495,12 +11500,12 @@
         <v>341</v>
       </c>
       <c r="G521" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="522" spans="1:7">
       <c r="A522" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B522">
         <v>342</v>
@@ -11512,12 +11517,12 @@
         <v>342</v>
       </c>
       <c r="G522" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="523" spans="1:7">
       <c r="A523" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B523">
         <v>343</v>
@@ -11529,12 +11534,12 @@
         <v>343</v>
       </c>
       <c r="G523" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="524" spans="1:7">
       <c r="A524" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B524">
         <v>344</v>
@@ -11546,12 +11551,12 @@
         <v>344</v>
       </c>
       <c r="G524" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="525" spans="1:7">
       <c r="A525" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B525">
         <v>345</v>
@@ -11563,12 +11568,12 @@
         <v>345</v>
       </c>
       <c r="G525" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="526" spans="1:7">
       <c r="A526" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B526">
         <v>346</v>
@@ -11580,12 +11585,12 @@
         <v>346</v>
       </c>
       <c r="G526" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="527" spans="1:7">
       <c r="A527" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B527">
         <v>347</v>
@@ -11597,12 +11602,12 @@
         <v>347</v>
       </c>
       <c r="G527" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="528" spans="1:7">
       <c r="A528" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B528">
         <v>348</v>
@@ -11614,12 +11619,12 @@
         <v>348</v>
       </c>
       <c r="G528" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="529" spans="1:7">
       <c r="A529" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B529">
         <v>349</v>
@@ -11631,12 +11636,12 @@
         <v>349</v>
       </c>
       <c r="G529" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="530" spans="1:7">
       <c r="A530" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B530">
         <v>350</v>
@@ -11648,12 +11653,12 @@
         <v>350</v>
       </c>
       <c r="G530" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="531" spans="1:7">
       <c r="A531" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B531">
         <v>351</v>
@@ -11665,12 +11670,12 @@
         <v>351</v>
       </c>
       <c r="G531" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="532" spans="1:7">
       <c r="A532" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B532">
         <v>352</v>
@@ -11682,12 +11687,12 @@
         <v>352</v>
       </c>
       <c r="G532" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="533" spans="1:7">
       <c r="A533" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B533">
         <v>353</v>
@@ -11699,7 +11704,7 @@
         <v>353</v>
       </c>
       <c r="G533" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11729,24 +11734,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
